--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D149E7-B1D8-4099-9DB4-5072EDBF63EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EADBB7-31E1-4210-9B83-90F4B10E2E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>1위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1767,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B55" si="7">B38*10</f>
+        <f t="shared" ref="B39:B58" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1769,11 +1781,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F55" si="9">F38+5</f>
+        <f t="shared" ref="F39:F58" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G55" si="10">G38+2</f>
+        <f t="shared" ref="G39:G58" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -2257,6 +2269,96 @@
         <v>80</v>
       </c>
       <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="7"/>
+        <v>1E+129</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" ref="C56:C58" si="15">B56*2</f>
+        <v>2E+129</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="1">
+        <v>20</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="9"/>
+        <v>275</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="15"/>
+        <v>2.0000000000000001E+130</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="1">
+        <v>20</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="15"/>
+        <v>2.0000000000000002E+131</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="1">
+        <v>20</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="9"/>
+        <v>285</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="H58" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EADBB7-31E1-4210-9B83-90F4B10E2E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8E94A-96A6-47D0-AE36-C96939D9E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,22 @@
   </si>
   <si>
     <t>1000위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1767,7 +1783,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B58" si="7">B38*10</f>
+        <f t="shared" ref="B39:B62" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1781,11 +1797,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F58" si="9">F38+5</f>
+        <f t="shared" ref="F39:F62" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G58" si="10">G38+2</f>
+        <f t="shared" ref="G39:G62" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -2281,7 +2297,7 @@
         <v>1E+129</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:C58" si="15">B56*2</f>
+        <f t="shared" ref="C56:C60" si="15">B56*2</f>
         <v>2E+129</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2359,6 +2375,126 @@
         <v>86</v>
       </c>
       <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+132</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="15"/>
+        <v>2.0000000000000003E+132</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="1">
+        <v>20</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="9"/>
+        <v>290</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+133</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="15"/>
+        <v>2.0000000000000003E+133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="1">
+        <v>20</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="9"/>
+        <v>295</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+134</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" ref="C61:C62" si="16">B61*2</f>
+        <v>2.0000000000000002E+134</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="1">
+        <v>20</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+135</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0000000000000002E+135</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="1">
+        <v>20</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="9"/>
+        <v>305</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="H62" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8E94A-96A6-47D0-AE36-C96939D9E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530DB336-3977-4C5E-9A0D-A0AE6B7D2342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,22 @@
   </si>
   <si>
     <t>1000설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1783,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B62" si="7">B38*10</f>
+        <f t="shared" ref="B39:B66" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1797,11 +1813,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F62" si="9">F38+5</f>
+        <f t="shared" ref="F39:F66" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G62" si="10">G38+2</f>
+        <f t="shared" ref="G39:G66" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -2447,7 +2463,7 @@
         <v>1.0000000000000001E+134</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" ref="C61:C62" si="16">B61*2</f>
+        <f t="shared" ref="C61:C64" si="16">B61*2</f>
         <v>2.0000000000000002E+134</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2495,6 +2511,126 @@
         <v>94</v>
       </c>
       <c r="H62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+136</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0000000000000004E+136</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="1">
+        <v>20</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+137</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0000000000000005E+137</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="1">
+        <v>20</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="9"/>
+        <v>315</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+138</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" ref="C65:C66" si="17">B65*2</f>
+        <v>2.0000000000000004E+138</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="1">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+139</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="17"/>
+        <v>2.0000000000000003E+139</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="1">
+        <v>20</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="9"/>
+        <v>325</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="H66" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530DB336-3977-4C5E-9A0D-A0AE6B7D2342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA6061-AAAB-4DCC-A449-4C2225D57C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,22 @@
   </si>
   <si>
     <t>1000적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1799,7 +1815,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B66" si="7">B38*10</f>
+        <f t="shared" ref="B39:B70" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1813,11 +1829,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F66" si="9">F38+5</f>
+        <f t="shared" ref="F39:F70" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G66" si="10">G38+2</f>
+        <f t="shared" ref="G39:G70" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -2583,7 +2599,7 @@
         <v>1.0000000000000002E+138</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ref="C65:C66" si="17">B65*2</f>
+        <f t="shared" ref="C65:C69" si="17">B65*2</f>
         <v>2.0000000000000004E+138</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -2631,6 +2647,126 @@
         <v>102</v>
       </c>
       <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000003E+140</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="17"/>
+        <v>2.0000000000000005E+140</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="1">
+        <v>20</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+141</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="17"/>
+        <v>2.0000000000000004E+141</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="1">
+        <v>20</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="9"/>
+        <v>335</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+142</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="17"/>
+        <v>2.0000000000000004E+142</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="1">
+        <v>20</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+143</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" ref="C70" si="18">B70*2</f>
+        <v>2.0000000000000005E+143</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="1">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="9"/>
+        <v>345</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="H70" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA6061-AAAB-4DCC-A449-4C2225D57C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980919D0-9B0A-446D-A0FB-BE9D24A737EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,22 @@
   </si>
   <si>
     <t>1000고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1815,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B70" si="7">B38*10</f>
+        <f t="shared" ref="B39:B74" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1829,11 +1845,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F70" si="9">F38+5</f>
+        <f t="shared" ref="F39:F74" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G70" si="10">G38+2</f>
+        <f t="shared" ref="G39:G74" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -2749,7 +2765,7 @@
         <v>1.0000000000000002E+143</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ref="C70" si="18">B70*2</f>
+        <f t="shared" ref="C70:C73" si="18">B70*2</f>
         <v>2.0000000000000005E+143</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -2767,6 +2783,126 @@
         <v>110</v>
       </c>
       <c r="H70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+144</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="18"/>
+        <v>2.0000000000000004E+144</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="1">
+        <v>20</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000003E+145</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="18"/>
+        <v>2.0000000000000005E+145</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="1">
+        <v>20</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="9"/>
+        <v>355</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+146</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="18"/>
+        <v>2.0000000000000003E+146</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="1">
+        <v>20</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+147</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" ref="C74" si="19">B74*2</f>
+        <v>2.0000000000000003E+147</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="1">
+        <v>20</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="9"/>
+        <v>365</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="H74" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980919D0-9B0A-446D-A0FB-BE9D24A737EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0354A0-6506-4246-9F00-5D22F573A660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,22 @@
   </si>
   <si>
     <t>1000화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,11 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1831,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B74" si="7">B38*10</f>
+        <f t="shared" ref="B39:B78" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1845,11 +1861,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F74" si="9">F38+5</f>
+        <f t="shared" ref="F39:F78" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G74" si="10">G38+2</f>
+        <f t="shared" ref="G39:G78" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -2885,7 +2901,7 @@
         <v>1.0000000000000002E+147</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" ref="C74" si="19">B74*2</f>
+        <f t="shared" ref="C74:C77" si="19">B74*2</f>
         <v>2.0000000000000003E+147</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -2903,6 +2919,126 @@
         <v>118</v>
       </c>
       <c r="H74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+148</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="19"/>
+        <v>2.0000000000000004E+148</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="1">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="9"/>
+        <v>370</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+149</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="19"/>
+        <v>2.0000000000000003E+149</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="1">
+        <v>20</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+150</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="19"/>
+        <v>2.0000000000000003E+150</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="1">
+        <v>20</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="9"/>
+        <v>380</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="10"/>
+        <v>124</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+151</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" ref="C78" si="20">B78*2</f>
+        <v>2.0000000000000003E+151</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="1">
+        <v>20</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="9"/>
+        <v>385</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="H78" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0354A0-6506-4246-9F00-5D22F573A660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB31720-9C76-417E-84BF-5B966FEF1CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,22 @@
   </si>
   <si>
     <t>1000명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,11 +779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1847,7 +1863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B78" si="7">B38*10</f>
+        <f t="shared" ref="B39:B82" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1861,11 +1877,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F78" si="9">F38+5</f>
+        <f t="shared" ref="F39:F82" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G78" si="10">G38+2</f>
+        <f t="shared" ref="G39:G82" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -3021,7 +3037,7 @@
         <v>1.0000000000000002E+151</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" ref="C78" si="20">B78*2</f>
+        <f t="shared" ref="C78:C81" si="20">B78*2</f>
         <v>2.0000000000000003E+151</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3039,6 +3055,126 @@
         <v>126</v>
       </c>
       <c r="H78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+152</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="20"/>
+        <v>2.0000000000000003E+152</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="1">
+        <v>20</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="9"/>
+        <v>390</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+153</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="20"/>
+        <v>2.0000000000000004E+153</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="1">
+        <v>20</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="9"/>
+        <v>395</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+154</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="20"/>
+        <v>2.0000000000000004E+154</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="1">
+        <v>20</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+155</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" ref="C82" si="21">B82*2</f>
+        <v>2.0000000000000003E+155</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="1">
+        <v>20</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="9"/>
+        <v>405</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="H82" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB31720-9C76-417E-84BF-5B966FEF1CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85699EF0-513A-4D18-8BAA-239DF429C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,22 @@
   </si>
   <si>
     <t>1000월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1879,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B82" si="7">B38*10</f>
+        <f t="shared" ref="B39:B86" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1877,11 +1893,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F82" si="9">F38+5</f>
+        <f t="shared" ref="F39:F86" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G82" si="10">G38+2</f>
+        <f t="shared" ref="G39:G86" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -3157,7 +3173,7 @@
         <v>1.0000000000000001E+155</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" ref="C82" si="21">B82*2</f>
+        <f t="shared" ref="C82:C85" si="21">B82*2</f>
         <v>2.0000000000000003E+155</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3175,6 +3191,126 @@
         <v>134</v>
       </c>
       <c r="H82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+156</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="21"/>
+        <v>2.0000000000000003E+156</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="1">
+        <v>20</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="9"/>
+        <v>410</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+157</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="21"/>
+        <v>2.0000000000000003E+157</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="1">
+        <v>20</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="9"/>
+        <v>415</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="10"/>
+        <v>138</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+158</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="21"/>
+        <v>2.0000000000000001E+158</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="1">
+        <v>20</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="9"/>
+        <v>420</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+159</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" ref="C86" si="22">B86*2</f>
+        <v>2.0000000000000002E+159</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="1">
+        <v>20</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="9"/>
+        <v>425</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="H86" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85699EF0-513A-4D18-8BAA-239DF429C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0031FF8-4C80-4668-9C29-E14736754943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,22 @@
   </si>
   <si>
     <t>1000후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1879,7 +1895,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B86" si="7">B38*10</f>
+        <f t="shared" ref="B39:B90" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1893,11 +1909,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F86" si="9">F38+5</f>
+        <f t="shared" ref="F39:F90" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G86" si="10">G38+2</f>
+        <f t="shared" ref="G39:G90" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -3293,7 +3309,7 @@
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" ref="C86" si="22">B86*2</f>
+        <f t="shared" ref="C86:C89" si="22">B86*2</f>
         <v>2.0000000000000002E+159</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -3311,6 +3327,126 @@
         <v>142</v>
       </c>
       <c r="H86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+160</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="22"/>
+        <v>2.0000000000000003E+160</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="1">
+        <v>20</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="9"/>
+        <v>430</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+161</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="22"/>
+        <v>2.0000000000000003E+161</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="1">
+        <v>20</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="9"/>
+        <v>435</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+162</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="22"/>
+        <v>2.0000000000000003E+162</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="1">
+        <v>20</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="9"/>
+        <v>440</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="10"/>
+        <v>148</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+163</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" ref="C90" si="23">B90*2</f>
+        <v>2.0000000000000002E+163</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="1">
+        <v>20</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="9"/>
+        <v>445</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="H90" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0031FF8-4C80-4668-9C29-E14736754943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D64508C-0486-47DF-8AB4-1B7713E17B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,22 @@
   </si>
   <si>
     <t>1000단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1895,7 +1911,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B90" si="7">B38*10</f>
+        <f t="shared" ref="B39:B94" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1909,11 +1925,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F90" si="9">F38+5</f>
+        <f t="shared" ref="F39:F94" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G90" si="10">G38+2</f>
+        <f t="shared" ref="G39:G94" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -3429,7 +3445,7 @@
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" ref="C90" si="23">B90*2</f>
+        <f t="shared" ref="C90:C94" si="23">B90*2</f>
         <v>2.0000000000000002E+163</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3447,6 +3463,126 @@
         <v>150</v>
       </c>
       <c r="H90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+164</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000003E+164</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="1">
+        <v>20</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="10"/>
+        <v>152</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000002E+165</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="1">
+        <v>20</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="9"/>
+        <v>455</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="10"/>
+        <v>154</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+166</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000002E+166</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="1">
+        <v>20</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="7"/>
+        <v>1E+167</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" ref="C94" si="24">B94*2</f>
+        <v>2.0000000000000001E+167</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="1">
+        <v>20</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="9"/>
+        <v>465</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
+      <c r="H94" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D64508C-0486-47DF-8AB4-1B7713E17B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081DE4A0-BF70-4584-B845-FC390B1D323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,22 @@
   </si>
   <si>
     <t>1000절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,11 +843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B94" si="7">B38*10</f>
+        <f t="shared" ref="B39:B98" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1925,11 +1941,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F94" si="9">F38+5</f>
+        <f t="shared" ref="F39:F98" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G94" si="10">G38+2</f>
+        <f t="shared" ref="G39:G98" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -3445,7 +3461,7 @@
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" ref="C90:C94" si="23">B90*2</f>
+        <f t="shared" ref="C90:C93" si="23">B90*2</f>
         <v>2.0000000000000002E+163</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3565,7 +3581,7 @@
         <v>1E+167</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" ref="C94" si="24">B94*2</f>
+        <f t="shared" ref="C94:C95" si="24">B94*2</f>
         <v>2.0000000000000001E+167</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3583,6 +3599,126 @@
         <v>158</v>
       </c>
       <c r="H94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="24"/>
+        <v>1.9999999999999999E+168</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="1">
+        <v>20</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="9"/>
+        <v>470</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" ref="C96:C98" si="25">B96*2</f>
+        <v>1.9999999999999999E+169</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="1">
+        <v>20</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="9"/>
+        <v>475</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="7"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="25"/>
+        <v>1.9999999999999998E+170</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="1">
+        <v>20</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="25"/>
+        <v>1.9999999999999999E+171</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" s="1">
+        <v>20</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="9"/>
+        <v>485</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="10"/>
+        <v>166</v>
+      </c>
+      <c r="H98" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081DE4A0-BF70-4584-B845-FC390B1D323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456374C5-2143-4693-9B20-5479652BF79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,38 @@
   </si>
   <si>
     <t>1000격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,16 +875,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
@@ -1927,7 +1959,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B98" si="7">B38*10</f>
+        <f t="shared" ref="B39:B103" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1941,11 +1973,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F98" si="9">F38+5</f>
+        <f t="shared" ref="F39:F103" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G98" si="10">G38+2</f>
+        <f t="shared" ref="G39:G103" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -3641,7 +3673,7 @@
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" ref="C96:C98" si="25">B96*2</f>
+        <f t="shared" ref="C96:C99" si="25">B96*2</f>
         <v>1.9999999999999999E+169</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -3719,6 +3751,246 @@
         <v>166</v>
       </c>
       <c r="H98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999991E+171</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="25"/>
+        <v>1.9999999999999998E+172</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" s="1">
+        <v>20</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="9"/>
+        <v>490</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999988E+172</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" ref="C100:C106" si="26">B100*2</f>
+        <v>1.9999999999999998E+173</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="1">
+        <v>20</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="9"/>
+        <v>495</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999985E+173</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="26"/>
+        <v>1.9999999999999997E+174</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="1">
+        <v>20</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999994E+174</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="26"/>
+        <v>1.9999999999999999E+175</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="1">
+        <v>20</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="9"/>
+        <v>505</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="10"/>
+        <v>174</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <f t="shared" si="7"/>
+        <v>1E+176</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="26"/>
+        <v>2E+176</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="1">
+        <v>20</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <f t="shared" ref="B104:B106" si="27">B103*10</f>
+        <v>1E+177</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="26"/>
+        <v>2E+177</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="1">
+        <v>20</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" ref="F104:F106" si="28">F103+5</f>
+        <v>515</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" ref="G104:G106" si="29">G103+2</f>
+        <v>178</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="26"/>
+        <v>2.0000000000000001E+178</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="1">
+        <v>20</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="28"/>
+        <v>520</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="29"/>
+        <v>180</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+179</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="26"/>
+        <v>2.0000000000000002E+179</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="1">
+        <v>20</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="28"/>
+        <v>525</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="29"/>
+        <v>182</v>
+      </c>
+      <c r="H106" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456374C5-2143-4693-9B20-5479652BF79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0FFAB-740B-413D-BB29-3A22A67DFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,38 @@
   </si>
   <si>
     <t>1000공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,11 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108:A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3909,7 +3941,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B106" si="27">B103*10</f>
+        <f t="shared" ref="B104:B114" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -3923,11 +3955,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F106" si="28">F103+5</f>
+        <f t="shared" ref="F104:F114" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G106" si="29">G103+2</f>
+        <f t="shared" ref="G104:G114" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -3991,6 +4023,246 @@
         <v>182</v>
       </c>
       <c r="H106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+180</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" ref="C107:C114" si="30">B107*2</f>
+        <v>2.0000000000000002E+180</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" s="1">
+        <v>20</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="28"/>
+        <v>530</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="29"/>
+        <v>184</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+181</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="30"/>
+        <v>2.0000000000000002E+181</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" s="1">
+        <v>20</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="28"/>
+        <v>535</v>
+      </c>
+      <c r="G108" s="1">
+        <f t="shared" si="29"/>
+        <v>186</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="30"/>
+        <v>2.0000000000000001E+182</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="1">
+        <v>20</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="28"/>
+        <v>540</v>
+      </c>
+      <c r="G109" s="1">
+        <f t="shared" si="29"/>
+        <v>188</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="30"/>
+        <v>2.0000000000000001E+183</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="1">
+        <v>20</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="28"/>
+        <v>545</v>
+      </c>
+      <c r="G110" s="1">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+184</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="30"/>
+        <v>2E+184</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" s="1">
+        <v>20</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="28"/>
+        <v>550</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="30"/>
+        <v>2E+185</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="1">
+        <v>20</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="28"/>
+        <v>555</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="30"/>
+        <v>2E+186</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="1">
+        <v>20</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="28"/>
+        <v>560</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="29"/>
+        <v>196</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999991E+186</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="30"/>
+        <v>1.9999999999999998E+187</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="1">
+        <v>20</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="28"/>
+        <v>565</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="29"/>
+        <v>198</v>
+      </c>
+      <c r="H114" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0FFAB-740B-413D-BB29-3A22A67DFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1257CB08-1A75-4692-A5D5-19AE5C192D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,19 +504,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000연</t>
+    <t>1피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,11 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108:A114"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3941,7 +3957,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B114" si="27">B103*10</f>
+        <f t="shared" ref="B104:B118" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -3955,11 +3971,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F114" si="28">F103+5</f>
+        <f t="shared" ref="F104:F118" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G114" si="29">G103+2</f>
+        <f t="shared" ref="G104:G118" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -4263,6 +4279,126 @@
         <v>198</v>
       </c>
       <c r="H114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999987E+187</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" ref="C115:C118" si="31">B115*2</f>
+        <v>1.9999999999999997E+188</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="1">
+        <v>20</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="28"/>
+        <v>570</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="29"/>
+        <v>200</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <f t="shared" si="27"/>
+        <v>9.999999999999999E+188</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="31"/>
+        <v>1.9999999999999998E+189</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="1">
+        <v>20</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="28"/>
+        <v>575</v>
+      </c>
+      <c r="G116" s="1">
+        <f t="shared" si="29"/>
+        <v>202</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999987E+189</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="31"/>
+        <v>1.9999999999999997E+190</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E117" s="1">
+        <v>20</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="28"/>
+        <v>580</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" si="29"/>
+        <v>204</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999991E+190</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="31"/>
+        <v>1.9999999999999998E+191</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="1">
+        <v>20</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="28"/>
+        <v>585</v>
+      </c>
+      <c r="G118" s="1">
+        <f t="shared" si="29"/>
+        <v>206</v>
+      </c>
+      <c r="H118" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1257CB08-1A75-4692-A5D5-19AE5C192D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C516C-A1E4-4BC2-8756-AE8F635FC60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,22 @@
   </si>
   <si>
     <t>1000동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,11 +939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3957,7 +3973,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B118" si="27">B103*10</f>
+        <f t="shared" ref="B104:B122" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -3971,11 +3987,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F118" si="28">F103+5</f>
+        <f t="shared" ref="F104:F122" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G118" si="29">G103+2</f>
+        <f t="shared" ref="G104:G122" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -4399,6 +4415,126 @@
         <v>206</v>
       </c>
       <c r="H118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" ref="C119:C122" si="32">B119*2</f>
+        <v>1.9999999999999998E+192</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" s="1">
+        <v>20</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="28"/>
+        <v>590</v>
+      </c>
+      <c r="G119" s="1">
+        <f t="shared" si="29"/>
+        <v>208</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999986E+192</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="32"/>
+        <v>1.9999999999999997E+193</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E120" s="1">
+        <v>20</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="28"/>
+        <v>595</v>
+      </c>
+      <c r="G120" s="1">
+        <f t="shared" si="29"/>
+        <v>210</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999978E+193</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="32"/>
+        <v>1.9999999999999996E+194</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="1">
+        <v>20</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="28"/>
+        <v>600</v>
+      </c>
+      <c r="G121" s="1">
+        <f t="shared" si="29"/>
+        <v>212</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999985E+194</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="32"/>
+        <v>1.9999999999999997E+195</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="1">
+        <v>20</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="28"/>
+        <v>605</v>
+      </c>
+      <c r="G122" s="1">
+        <f t="shared" si="29"/>
+        <v>214</v>
+      </c>
+      <c r="H122" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C516C-A1E4-4BC2-8756-AE8F635FC60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF8062-D251-440C-9337-4E70E83A398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,38 @@
   </si>
   <si>
     <t>1000멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,11 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3973,7 +4005,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B122" si="27">B103*10</f>
+        <f t="shared" ref="B104:B130" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -3987,11 +4019,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F122" si="28">F103+5</f>
+        <f t="shared" ref="F104:F130" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G122" si="29">G103+2</f>
+        <f t="shared" ref="G104:G130" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -4535,6 +4567,246 @@
         <v>214</v>
       </c>
       <c r="H122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" ref="C123:C130" si="33">B123*2</f>
+        <v>1.9999999999999999E+196</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123" s="1">
+        <v>20</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="28"/>
+        <v>610</v>
+      </c>
+      <c r="G123" s="1">
+        <f t="shared" si="29"/>
+        <v>216</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="C124" s="3">
+        <f t="shared" si="33"/>
+        <v>1.9999999999999999E+197</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E124" s="1">
+        <v>20</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="28"/>
+        <v>615</v>
+      </c>
+      <c r="G124" s="1">
+        <f t="shared" si="29"/>
+        <v>218</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" si="33"/>
+        <v>1.9999999999999998E+198</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E125" s="1">
+        <v>20</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="28"/>
+        <v>620</v>
+      </c>
+      <c r="G125" s="1">
+        <f t="shared" si="29"/>
+        <v>220</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="33"/>
+        <v>1.9999999999999998E+199</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" s="1">
+        <v>20</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="28"/>
+        <v>625</v>
+      </c>
+      <c r="G126" s="1">
+        <f t="shared" si="29"/>
+        <v>222</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="C127" s="3">
+        <f t="shared" si="33"/>
+        <v>1.9999999999999999E+200</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="1">
+        <v>20</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="28"/>
+        <v>630</v>
+      </c>
+      <c r="G127" s="1">
+        <f t="shared" si="29"/>
+        <v>224</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <f t="shared" si="27"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="C128" s="3">
+        <f t="shared" si="33"/>
+        <v>1.9999999999999998E+201</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="1">
+        <v>20</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="28"/>
+        <v>635</v>
+      </c>
+      <c r="G128" s="1">
+        <f t="shared" si="29"/>
+        <v>226</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3">
+        <f t="shared" si="27"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="C129" s="3">
+        <f t="shared" si="33"/>
+        <v>1.9999999999999998E+202</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129" s="1">
+        <v>20</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="28"/>
+        <v>640</v>
+      </c>
+      <c r="G129" s="1">
+        <f t="shared" si="29"/>
+        <v>228</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" si="33"/>
+        <v>2E+203</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E130" s="1">
+        <v>20</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="28"/>
+        <v>645</v>
+      </c>
+      <c r="G130" s="1">
+        <f t="shared" si="29"/>
+        <v>230</v>
+      </c>
+      <c r="H130" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF8062-D251-440C-9337-4E70E83A398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5182DDEA-349D-441E-BCDB-94FCA3D2AEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,22 @@
   </si>
   <si>
     <t>1000증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,11 +987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4005,7 +4021,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B130" si="27">B103*10</f>
+        <f t="shared" ref="B104:B134" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4019,11 +4035,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F130" si="28">F103+5</f>
+        <f t="shared" ref="F104:F134" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G130" si="29">G103+2</f>
+        <f t="shared" ref="G104:G134" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -4807,6 +4823,126 @@
         <v>230</v>
       </c>
       <c r="H130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="C131" s="3">
+        <f t="shared" ref="C131:C134" si="34">B131*2</f>
+        <v>2E+204</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E131" s="1">
+        <v>20</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" si="28"/>
+        <v>650</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" si="29"/>
+        <v>232</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+205</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" si="34"/>
+        <v>2E+205</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" s="1">
+        <v>20</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="28"/>
+        <v>655</v>
+      </c>
+      <c r="G132" s="1">
+        <f t="shared" si="29"/>
+        <v>234</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+206</v>
+      </c>
+      <c r="C133" s="3">
+        <f t="shared" si="34"/>
+        <v>2.0000000000000001E+206</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="1">
+        <v>20</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="28"/>
+        <v>660</v>
+      </c>
+      <c r="G133" s="1">
+        <f t="shared" si="29"/>
+        <v>236</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+207</v>
+      </c>
+      <c r="C134" s="3">
+        <f t="shared" si="34"/>
+        <v>2.0000000000000001E+207</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="1">
+        <v>20</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="28"/>
+        <v>665</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="29"/>
+        <v>238</v>
+      </c>
+      <c r="H134" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5182DDEA-349D-441E-BCDB-94FCA3D2AEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF552D-A0C3-40B2-8239-1031DA09D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,22 @@
   </si>
   <si>
     <t>1000쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4021,7 +4037,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B134" si="27">B103*10</f>
+        <f t="shared" ref="B104:B138" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4035,11 +4051,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F134" si="28">F103+5</f>
+        <f t="shared" ref="F104:F138" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G134" si="29">G103+2</f>
+        <f t="shared" ref="G104:G138" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -4943,6 +4959,126 @@
         <v>238</v>
       </c>
       <c r="H134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" ref="C135:C138" si="35">B135*2</f>
+        <v>2E+208</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E135" s="1">
+        <v>20</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="28"/>
+        <v>670</v>
+      </c>
+      <c r="G135" s="1">
+        <f t="shared" si="29"/>
+        <v>240</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="C136" s="3">
+        <f t="shared" si="35"/>
+        <v>2.0000000000000001E+209</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E136" s="1">
+        <v>20</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="28"/>
+        <v>675</v>
+      </c>
+      <c r="G136" s="1">
+        <f t="shared" si="29"/>
+        <v>242</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+210</v>
+      </c>
+      <c r="C137" s="3">
+        <f t="shared" si="35"/>
+        <v>2.0000000000000001E+210</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="1">
+        <v>20</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="28"/>
+        <v>680</v>
+      </c>
+      <c r="G137" s="1">
+        <f t="shared" si="29"/>
+        <v>244</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+211</v>
+      </c>
+      <c r="C138" s="3">
+        <f t="shared" si="35"/>
+        <v>2.0000000000000001E+211</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E138" s="1">
+        <v>20</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="28"/>
+        <v>685</v>
+      </c>
+      <c r="G138" s="1">
+        <f t="shared" si="29"/>
+        <v>246</v>
+      </c>
+      <c r="H138" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF552D-A0C3-40B2-8239-1031DA09D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931A789A-93C4-4BBC-BBCC-D9D301670C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +613,22 @@
   </si>
   <si>
     <t>1000우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,9 +723,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -747,7 +763,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -853,7 +869,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,7 +1011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4037,7 +4053,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B138" si="27">B103*10</f>
+        <f t="shared" ref="B104:B142" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4051,11 +4067,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F138" si="28">F103+5</f>
+        <f t="shared" ref="F104:F142" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G138" si="29">G103+2</f>
+        <f t="shared" ref="G104:G142" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -5079,6 +5095,126 @@
         <v>246</v>
       </c>
       <c r="H138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+212</v>
+      </c>
+      <c r="C139" s="3">
+        <f t="shared" ref="C139:C142" si="36">B139*2</f>
+        <v>2.0000000000000002E+212</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" s="1">
+        <v>20</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="28"/>
+        <v>690</v>
+      </c>
+      <c r="G139" s="1">
+        <f t="shared" si="29"/>
+        <v>248</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+213</v>
+      </c>
+      <c r="C140" s="3">
+        <f t="shared" si="36"/>
+        <v>2.0000000000000003E+213</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="1">
+        <v>20</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="28"/>
+        <v>695</v>
+      </c>
+      <c r="G140" s="1">
+        <f t="shared" si="29"/>
+        <v>250</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000002E+214</v>
+      </c>
+      <c r="C141" s="3">
+        <f t="shared" si="36"/>
+        <v>2.0000000000000004E+214</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" s="1">
+        <v>20</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="28"/>
+        <v>700</v>
+      </c>
+      <c r="G141" s="1">
+        <f t="shared" si="29"/>
+        <v>252</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+215</v>
+      </c>
+      <c r="C142" s="3">
+        <f t="shared" si="36"/>
+        <v>2.0000000000000002E+215</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" s="1">
+        <v>20</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="28"/>
+        <v>705</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" si="29"/>
+        <v>254</v>
+      </c>
+      <c r="H142" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931A789A-93C4-4BBC-BBCC-D9D301670C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B86B46-C3F4-4234-BEE8-2A05EC827988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,38 @@
   </si>
   <si>
     <t>1000팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,11 +1051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4053,7 +4085,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B142" si="27">B103*10</f>
+        <f t="shared" ref="B104:B150" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4067,11 +4099,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F142" si="28">F103+5</f>
+        <f t="shared" ref="F104:F150" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G142" si="29">G103+2</f>
+        <f t="shared" ref="G104:G150" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -5215,6 +5247,246 @@
         <v>254</v>
       </c>
       <c r="H142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+216</v>
+      </c>
+      <c r="C143" s="3">
+        <f t="shared" ref="C143:C150" si="37">B143*2</f>
+        <v>2E+216</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E143" s="1">
+        <v>20</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="28"/>
+        <v>710</v>
+      </c>
+      <c r="G143" s="1">
+        <f t="shared" si="29"/>
+        <v>256</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="C144" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000002E+217</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E144" s="1">
+        <v>20</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="28"/>
+        <v>715</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" si="29"/>
+        <v>258</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="C145" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000002E+218</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E145" s="1">
+        <v>20</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="28"/>
+        <v>720</v>
+      </c>
+      <c r="G145" s="1">
+        <f t="shared" si="29"/>
+        <v>260</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+219</v>
+      </c>
+      <c r="C146" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000002E+219</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="1">
+        <v>20</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="28"/>
+        <v>725</v>
+      </c>
+      <c r="G146" s="1">
+        <f t="shared" si="29"/>
+        <v>262</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="C147" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000002E+220</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E147" s="1">
+        <v>20</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="28"/>
+        <v>730</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" si="29"/>
+        <v>264</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+221</v>
+      </c>
+      <c r="C148" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000001E+221</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E148" s="1">
+        <v>20</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="28"/>
+        <v>735</v>
+      </c>
+      <c r="G148" s="1">
+        <f t="shared" si="29"/>
+        <v>266</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+222</v>
+      </c>
+      <c r="C149" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000001E+222</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" s="1">
+        <v>20</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="28"/>
+        <v>740</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" si="29"/>
+        <v>268</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+223</v>
+      </c>
+      <c r="C150" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000001E+223</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150" s="1">
+        <v>20</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="28"/>
+        <v>745</v>
+      </c>
+      <c r="G150" s="1">
+        <f t="shared" si="29"/>
+        <v>270</v>
+      </c>
+      <c r="H150" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B86B46-C3F4-4234-BEE8-2A05EC827988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F65B9F-C516-4D3E-912B-4D9BE08C5832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,6 +661,22 @@
   </si>
   <si>
     <t>1000한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,11 +1067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4085,7 +4101,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B150" si="27">B103*10</f>
+        <f t="shared" ref="B104:B154" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4099,11 +4115,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F150" si="28">F103+5</f>
+        <f t="shared" ref="F104:F154" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G150" si="29">G103+2</f>
+        <f t="shared" ref="G104:G154" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -5487,6 +5503,126 @@
         <v>270</v>
       </c>
       <c r="H150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="C151" s="3">
+        <f t="shared" ref="C151:C154" si="38">B151*2</f>
+        <v>1.9999999999999999E+224</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151" s="1">
+        <v>20</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="28"/>
+        <v>750</v>
+      </c>
+      <c r="G151" s="1">
+        <f t="shared" si="29"/>
+        <v>272</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="38"/>
+        <v>1.9999999999999999E+225</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E152" s="1">
+        <v>20</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="28"/>
+        <v>755</v>
+      </c>
+      <c r="G152" s="1">
+        <f t="shared" si="29"/>
+        <v>274</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="C153" s="3">
+        <f t="shared" si="38"/>
+        <v>1.9999999999999999E+226</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E153" s="1">
+        <v>20</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="28"/>
+        <v>760</v>
+      </c>
+      <c r="G153" s="1">
+        <f t="shared" si="29"/>
+        <v>276</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="C154" s="3">
+        <f t="shared" si="38"/>
+        <v>1.9999999999999998E+227</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E154" s="1">
+        <v>20</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="28"/>
+        <v>765</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" si="29"/>
+        <v>278</v>
+      </c>
+      <c r="H154" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F65B9F-C516-4D3E-912B-4D9BE08C5832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E96FB2F-E17B-4E3D-B656-530DA1AD8297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,22 @@
   </si>
   <si>
     <t>1000혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,11 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4101,7 +4117,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B154" si="27">B103*10</f>
+        <f t="shared" ref="B104:B158" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4115,11 +4131,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F154" si="28">F103+5</f>
+        <f t="shared" ref="F104:F158" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G154" si="29">G103+2</f>
+        <f t="shared" ref="G104:G158" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -5623,6 +5639,126 @@
         <v>278</v>
       </c>
       <c r="H154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="C155" s="3">
+        <f t="shared" ref="C155:C158" si="39">B155*2</f>
+        <v>1.9999999999999998E+228</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E155" s="1">
+        <v>20</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="28"/>
+        <v>770</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="29"/>
+        <v>280</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="C156" s="3">
+        <f t="shared" si="39"/>
+        <v>2E+229</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E156" s="1">
+        <v>20</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="28"/>
+        <v>775</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="29"/>
+        <v>282</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="C157" s="3">
+        <f t="shared" si="39"/>
+        <v>1.9999999999999998E+230</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E157" s="1">
+        <v>20</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="28"/>
+        <v>780</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="29"/>
+        <v>284</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="C158" s="3">
+        <f t="shared" si="39"/>
+        <v>1.9999999999999998E+231</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E158" s="1">
+        <v>20</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="28"/>
+        <v>785</v>
+      </c>
+      <c r="G158" s="1">
+        <f t="shared" si="29"/>
+        <v>286</v>
+      </c>
+      <c r="H158" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E96FB2F-E17B-4E3D-B656-530DA1AD8297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C60E05-F24A-4370-BBC4-E1D33A385CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,22 @@
   </si>
   <si>
     <t>1000연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,11 +1099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4117,7 +4133,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B158" si="27">B103*10</f>
+        <f t="shared" ref="B104:B162" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4131,11 +4147,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F158" si="28">F103+5</f>
+        <f t="shared" ref="F104:F162" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G158" si="29">G103+2</f>
+        <f t="shared" ref="G104:G162" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -5759,6 +5775,126 @@
         <v>286</v>
       </c>
       <c r="H158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="C159" s="3">
+        <f t="shared" ref="C159:C162" si="40">B159*2</f>
+        <v>1.9999999999999998E+232</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E159" s="1">
+        <v>20</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="28"/>
+        <v>790</v>
+      </c>
+      <c r="G159" s="1">
+        <f t="shared" si="29"/>
+        <v>288</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="C160" s="3">
+        <f t="shared" si="40"/>
+        <v>1.9999999999999999E+233</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E160" s="1">
+        <v>20</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="28"/>
+        <v>795</v>
+      </c>
+      <c r="G160" s="1">
+        <f t="shared" si="29"/>
+        <v>290</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+234</v>
+      </c>
+      <c r="C161" s="3">
+        <f t="shared" si="40"/>
+        <v>2E+234</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" s="1">
+        <v>20</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="28"/>
+        <v>800</v>
+      </c>
+      <c r="G161" s="1">
+        <f t="shared" si="29"/>
+        <v>292</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="C162" s="3">
+        <f t="shared" si="40"/>
+        <v>2.0000000000000001E+235</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" s="1">
+        <v>20</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="28"/>
+        <v>805</v>
+      </c>
+      <c r="G162" s="1">
+        <f t="shared" si="29"/>
+        <v>294</v>
+      </c>
+      <c r="H162" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C60E05-F24A-4370-BBC4-E1D33A385CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E4E76-10A0-46B7-B3ED-F00A3CF2C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,6 +709,22 @@
   </si>
   <si>
     <t>1000난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,11 +1115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4133,7 +4149,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B162" si="27">B103*10</f>
+        <f t="shared" ref="B104:B166" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4147,11 +4163,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F162" si="28">F103+5</f>
+        <f t="shared" ref="F104:F166" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G162" si="29">G103+2</f>
+        <f t="shared" ref="G104:G166" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -5895,6 +5911,126 @@
         <v>294</v>
       </c>
       <c r="H162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="C163" s="3">
+        <f t="shared" ref="C163:C166" si="41">B163*2</f>
+        <v>2.0000000000000001E+236</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E163" s="1">
+        <v>20</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="28"/>
+        <v>810</v>
+      </c>
+      <c r="G163" s="1">
+        <f t="shared" si="29"/>
+        <v>296</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="C164" s="3">
+        <f t="shared" si="41"/>
+        <v>2.0000000000000002E+237</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E164" s="1">
+        <v>20</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="28"/>
+        <v>815</v>
+      </c>
+      <c r="G164" s="1">
+        <f t="shared" si="29"/>
+        <v>298</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3">
+        <f t="shared" si="27"/>
+        <v>1E+238</v>
+      </c>
+      <c r="C165" s="3">
+        <f t="shared" si="41"/>
+        <v>2.0000000000000001E+238</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E165" s="1">
+        <v>20</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="28"/>
+        <v>820</v>
+      </c>
+      <c r="G165" s="1">
+        <f t="shared" si="29"/>
+        <v>300</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="C166" s="3">
+        <f t="shared" si="41"/>
+        <v>2.0000000000000002E+239</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E166" s="1">
+        <v>20</v>
+      </c>
+      <c r="F166" s="1">
+        <f t="shared" si="28"/>
+        <v>825</v>
+      </c>
+      <c r="G166" s="1">
+        <f t="shared" si="29"/>
+        <v>302</v>
+      </c>
+      <c r="H166" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E4E76-10A0-46B7-B3ED-F00A3CF2C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F56D3-8164-4848-B53E-4B6B1BF08179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,22 @@
   </si>
   <si>
     <t>1000군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4149,7 +4165,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B166" si="27">B103*10</f>
+        <f t="shared" ref="B104:B167" si="27">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
@@ -4163,11 +4179,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F166" si="28">F103+5</f>
+        <f t="shared" ref="F104:F167" si="28">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G166" si="29">G103+2</f>
+        <f t="shared" ref="G104:G167" si="29">G103+2</f>
         <v>178</v>
       </c>
       <c r="H104" s="1">
@@ -6031,6 +6047,126 @@
         <v>302</v>
       </c>
       <c r="H166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000002E+240</v>
+      </c>
+      <c r="C167" s="3">
+        <f t="shared" ref="C167:C170" si="42">B167*2</f>
+        <v>2.0000000000000004E+240</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E167" s="1">
+        <v>20</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" si="28"/>
+        <v>830</v>
+      </c>
+      <c r="G167" s="1">
+        <f t="shared" si="29"/>
+        <v>304</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3">
+        <f t="shared" ref="B168:B170" si="43">B167*10</f>
+        <v>1.0000000000000002E+241</v>
+      </c>
+      <c r="C168" s="3">
+        <f t="shared" si="42"/>
+        <v>2.0000000000000004E+241</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E168" s="1">
+        <v>20</v>
+      </c>
+      <c r="F168" s="1">
+        <f t="shared" ref="F168:F170" si="44">F167+5</f>
+        <v>835</v>
+      </c>
+      <c r="G168" s="1">
+        <f t="shared" ref="G168:G170" si="45">G167+2</f>
+        <v>306</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000002E+242</v>
+      </c>
+      <c r="C169" s="3">
+        <f t="shared" si="42"/>
+        <v>2.0000000000000003E+242</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E169" s="1">
+        <v>20</v>
+      </c>
+      <c r="F169" s="1">
+        <f t="shared" si="44"/>
+        <v>840</v>
+      </c>
+      <c r="G169" s="1">
+        <f t="shared" si="45"/>
+        <v>308</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="C170" s="3">
+        <f t="shared" si="42"/>
+        <v>2.0000000000000001E+243</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E170" s="1">
+        <v>20</v>
+      </c>
+      <c r="F170" s="1">
+        <f t="shared" si="44"/>
+        <v>845</v>
+      </c>
+      <c r="G170" s="1">
+        <f t="shared" si="45"/>
+        <v>310</v>
+      </c>
+      <c r="H170" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F56D3-8164-4848-B53E-4B6B1BF08179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C0826B-35B9-4176-9235-871D9171FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,6 +741,22 @@
   </si>
   <si>
     <t>1000결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,11 +1147,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
+      <selection pane="bottomLeft" activeCell="A171" sqref="A171:H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6085,7 +6101,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" ref="B168:B170" si="43">B167*10</f>
+        <f t="shared" ref="B168:B174" si="43">B167*10</f>
         <v>1.0000000000000002E+241</v>
       </c>
       <c r="C168" s="3">
@@ -6099,11 +6115,11 @@
         <v>20</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" ref="F168:F170" si="44">F167+5</f>
+        <f t="shared" ref="F168:F174" si="44">F167+5</f>
         <v>835</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" ref="G168:G170" si="45">G167+2</f>
+        <f t="shared" ref="G168:G174" si="45">G167+2</f>
         <v>306</v>
       </c>
       <c r="H168" s="1">
@@ -6167,6 +6183,126 @@
         <v>310</v>
       </c>
       <c r="H170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="C171" s="3">
+        <f t="shared" ref="C171:C174" si="46">B171*2</f>
+        <v>2.0000000000000001E+244</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E171" s="1">
+        <v>20</v>
+      </c>
+      <c r="F171" s="1">
+        <f t="shared" si="44"/>
+        <v>850</v>
+      </c>
+      <c r="G171" s="1">
+        <f t="shared" si="45"/>
+        <v>312</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3">
+        <f t="shared" si="43"/>
+        <v>1E+245</v>
+      </c>
+      <c r="C172" s="3">
+        <f t="shared" si="46"/>
+        <v>2.0000000000000001E+245</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E172" s="1">
+        <v>20</v>
+      </c>
+      <c r="F172" s="1">
+        <f t="shared" si="44"/>
+        <v>855</v>
+      </c>
+      <c r="G172" s="1">
+        <f t="shared" si="45"/>
+        <v>314</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="C173" s="3">
+        <f t="shared" si="46"/>
+        <v>2.0000000000000001E+246</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E173" s="1">
+        <v>20</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="44"/>
+        <v>860</v>
+      </c>
+      <c r="G173" s="1">
+        <f t="shared" si="45"/>
+        <v>316</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="C174" s="3">
+        <f t="shared" si="46"/>
+        <v>2.0000000000000002E+247</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E174" s="1">
+        <v>20</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" si="44"/>
+        <v>865</v>
+      </c>
+      <c r="G174" s="1">
+        <f t="shared" si="45"/>
+        <v>318</v>
+      </c>
+      <c r="H174" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C0826B-35B9-4176-9235-871D9171FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DFF71-81F6-469E-B1A2-771AAFCBFC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +757,22 @@
   </si>
   <si>
     <t>1000맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,11 +1163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A171" sqref="A171:H174"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6101,7 +6117,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" ref="B168:B174" si="43">B167*10</f>
+        <f t="shared" ref="B168:B178" si="43">B167*10</f>
         <v>1.0000000000000002E+241</v>
       </c>
       <c r="C168" s="3">
@@ -6115,11 +6131,11 @@
         <v>20</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" ref="F168:F174" si="44">F167+5</f>
+        <f t="shared" ref="F168:F178" si="44">F167+5</f>
         <v>835</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" ref="G168:G174" si="45">G167+2</f>
+        <f t="shared" ref="G168:G178" si="45">G167+2</f>
         <v>306</v>
       </c>
       <c r="H168" s="1">
@@ -6303,6 +6319,126 @@
         <v>318</v>
       </c>
       <c r="H174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000002E+248</v>
+      </c>
+      <c r="C175" s="3">
+        <f t="shared" ref="C175:C178" si="47">B175*2</f>
+        <v>2.0000000000000003E+248</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E175" s="1">
+        <v>20</v>
+      </c>
+      <c r="F175" s="1">
+        <f t="shared" si="44"/>
+        <v>870</v>
+      </c>
+      <c r="G175" s="1">
+        <f t="shared" si="45"/>
+        <v>320</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="C176" s="3">
+        <f t="shared" si="47"/>
+        <v>2.0000000000000002E+249</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E176" s="1">
+        <v>20</v>
+      </c>
+      <c r="F176" s="1">
+        <f t="shared" si="44"/>
+        <v>875</v>
+      </c>
+      <c r="G176" s="1">
+        <f t="shared" si="45"/>
+        <v>322</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="C177" s="3">
+        <f t="shared" si="47"/>
+        <v>2.0000000000000002E+250</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E177" s="1">
+        <v>20</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="44"/>
+        <v>880</v>
+      </c>
+      <c r="G177" s="1">
+        <f t="shared" si="45"/>
+        <v>324</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3">
+        <f t="shared" si="43"/>
+        <v>1E+251</v>
+      </c>
+      <c r="C178" s="3">
+        <f t="shared" si="47"/>
+        <v>2.0000000000000001E+251</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E178" s="1">
+        <v>20</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="44"/>
+        <v>885</v>
+      </c>
+      <c r="G178" s="1">
+        <f t="shared" si="45"/>
+        <v>326</v>
+      </c>
+      <c r="H178" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DFF71-81F6-469E-B1A2-771AAFCBFC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7B6D0-3F12-48E3-8B4B-74B49589BA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,6 +773,22 @@
   </si>
   <si>
     <t>1000토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1163,11 +1179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1433,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1444,7 +1460,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1471,7 +1487,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1498,7 +1514,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1525,7 +1541,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1552,7 +1568,7 @@
         <v>65</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1579,7 +1595,7 @@
         <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1606,7 +1622,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1633,7 +1649,7 @@
         <v>80</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1660,7 +1676,7 @@
         <v>85</v>
       </c>
       <c r="G18" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1687,7 +1703,7 @@
         <v>90</v>
       </c>
       <c r="G19" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1714,7 +1730,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1741,7 +1757,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1768,7 +1784,7 @@
         <v>105</v>
       </c>
       <c r="G22" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1795,7 +1811,7 @@
         <v>110</v>
       </c>
       <c r="G23" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1822,7 +1838,7 @@
         <v>115</v>
       </c>
       <c r="G24" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1849,7 +1865,7 @@
         <v>120</v>
       </c>
       <c r="G25" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1876,7 +1892,7 @@
         <v>125</v>
       </c>
       <c r="G26" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1905,8 +1921,7 @@
         <v>130</v>
       </c>
       <c r="G27" s="1">
-        <f>G26+2</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1935,8 +1950,7 @@
         <v>135</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ref="G28:G38" si="6">G27+2</f>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1965,8 +1979,7 @@
         <v>140</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1995,8 +2008,7 @@
         <v>145</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2025,8 +2037,7 @@
         <v>150</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2055,8 +2066,7 @@
         <v>155</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2085,8 +2095,7 @@
         <v>160</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2115,8 +2124,7 @@
         <v>165</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2145,8 +2153,7 @@
         <v>170</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2175,8 +2182,7 @@
         <v>175</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2205,8 +2211,7 @@
         <v>180</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2235,8 +2240,7 @@
         <v>185</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="6"/>
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2247,11 +2251,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B103" si="7">B38*10</f>
+        <f t="shared" ref="B39:B103" si="6">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ref="C39:C41" si="8">B39*2</f>
+        <f t="shared" ref="C39:C41" si="7">B39*2</f>
         <v>2.0000000000000003E+112</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2261,12 +2265,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F103" si="9">F38+5</f>
+        <f t="shared" ref="F39:F103" si="8">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G103" si="10">G38+2</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2277,11 +2280,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000002E+113</v>
+      </c>
+      <c r="C40" s="3">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E+113</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="8"/>
         <v>2.0000000000000004E+113</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2291,12 +2294,11 @@
         <v>20</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="10"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -2307,11 +2309,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000002E+114</v>
+      </c>
+      <c r="C41" s="3">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E+114</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="8"/>
         <v>2.0000000000000003E+114</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2321,12 +2323,11 @@
         <v>20</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="10"/>
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2337,11 +2338,11 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+115</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:C43" si="11">B42*2</f>
+        <f t="shared" ref="C42:C43" si="9">B42*2</f>
         <v>2.0000000000000005E+115</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2351,12 +2352,11 @@
         <v>20</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="10"/>
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -2367,11 +2367,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+116</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000004E+116</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2381,12 +2381,11 @@
         <v>20</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="10"/>
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2397,11 +2396,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+117</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" ref="C44:C46" si="12">B44*2</f>
+        <f t="shared" ref="C44:C46" si="10">B44*2</f>
         <v>2.0000000000000004E+117</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2411,12 +2410,11 @@
         <v>20</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>215</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="10"/>
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2427,11 +2425,11 @@
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+118</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000004E+118</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2441,12 +2439,11 @@
         <v>20</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="10"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2457,11 +2454,11 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+119</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000002E+119</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2471,12 +2468,11 @@
         <v>20</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="10"/>
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2487,11 +2483,11 @@
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+120</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:C51" si="13">B47*2</f>
+        <f t="shared" ref="C47:C51" si="11">B47*2</f>
         <v>2.0000000000000002E+120</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2501,12 +2497,11 @@
         <v>20</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="10"/>
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2517,11 +2512,11 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+121</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000003E+121</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2531,12 +2526,11 @@
         <v>20</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="10"/>
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2547,11 +2541,11 @@
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+122</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000004E+122</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2561,12 +2555,11 @@
         <v>20</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="10"/>
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2577,11 +2570,11 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+123</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000002E+123</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2591,12 +2584,11 @@
         <v>20</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="10"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -2607,11 +2599,11 @@
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+124</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000001E+124</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2621,12 +2613,11 @@
         <v>20</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="10"/>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2637,11 +2628,11 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+125</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:C55" si="14">B52*2</f>
+        <f t="shared" ref="C52:C55" si="12">B52*2</f>
         <v>2.0000000000000002E+125</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2651,12 +2642,11 @@
         <v>20</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>255</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="10"/>
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -2667,11 +2657,11 @@
         <v>51</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+126</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.0000000000000002E+126</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2681,12 +2671,11 @@
         <v>20</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="10"/>
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2697,11 +2686,11 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+127</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.0000000000000002E+127</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2711,12 +2700,11 @@
         <v>20</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>265</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="10"/>
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -2727,11 +2715,11 @@
         <v>53</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.0000000000000002E+128</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2741,12 +2729,11 @@
         <v>20</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="10"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -2757,11 +2744,11 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+129</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:C60" si="15">B56*2</f>
+        <f t="shared" ref="C56:C60" si="13">B56*2</f>
         <v>2E+129</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2771,12 +2758,11 @@
         <v>20</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>275</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="10"/>
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -2787,11 +2773,11 @@
         <v>55</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000001E+130</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2801,12 +2787,11 @@
         <v>20</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>280</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="10"/>
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -2817,11 +2802,11 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000002E+131</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -2831,12 +2816,11 @@
         <v>20</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>285</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="10"/>
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -2847,11 +2831,11 @@
         <v>57</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+132</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000003E+132</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2861,12 +2845,11 @@
         <v>20</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="10"/>
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -2877,11 +2860,11 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+133</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000003E+133</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2891,12 +2874,11 @@
         <v>20</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>295</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="10"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -2907,11 +2889,11 @@
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+134</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" ref="C61:C64" si="16">B61*2</f>
+        <f t="shared" ref="C61:C64" si="14">B61*2</f>
         <v>2.0000000000000002E+134</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2921,12 +2903,11 @@
         <v>20</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="10"/>
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -2937,11 +2918,11 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+135</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.0000000000000002E+135</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2951,12 +2932,11 @@
         <v>20</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>305</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="10"/>
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -2967,11 +2947,11 @@
         <v>61</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+136</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.0000000000000004E+136</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2981,12 +2961,11 @@
         <v>20</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="10"/>
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -2997,11 +2976,11 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+137</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.0000000000000005E+137</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3011,12 +2990,11 @@
         <v>20</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="10"/>
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -3027,11 +3005,11 @@
         <v>63</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+138</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ref="C65:C69" si="17">B65*2</f>
+        <f t="shared" ref="C65:C69" si="15">B65*2</f>
         <v>2.0000000000000004E+138</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -3041,12 +3019,11 @@
         <v>20</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="10"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3057,11 +3034,11 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+139</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000003E+139</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -3071,12 +3048,11 @@
         <v>20</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="10"/>
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -3087,11 +3063,11 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000003E+140</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000005E+140</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3101,12 +3077,11 @@
         <v>20</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="10"/>
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3117,11 +3092,11 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+141</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000004E+141</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -3131,12 +3106,11 @@
         <v>20</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>335</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="10"/>
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -3147,11 +3121,11 @@
         <v>67</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+142</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000004E+142</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3161,12 +3135,11 @@
         <v>20</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="10"/>
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3177,11 +3150,11 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+143</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ref="C70:C73" si="18">B70*2</f>
+        <f t="shared" ref="C70:C73" si="16">B70*2</f>
         <v>2.0000000000000005E+143</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -3191,12 +3164,11 @@
         <v>20</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>345</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -3207,11 +3179,11 @@
         <v>69</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+144</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.0000000000000004E+144</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -3221,12 +3193,11 @@
         <v>20</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="10"/>
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -3237,11 +3208,11 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000003E+145</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.0000000000000005E+145</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3251,12 +3222,11 @@
         <v>20</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>355</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="10"/>
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3267,11 +3237,11 @@
         <v>71</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+146</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.0000000000000003E+146</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3281,12 +3251,11 @@
         <v>20</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="10"/>
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3297,11 +3266,11 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+147</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" ref="C74:C77" si="19">B74*2</f>
+        <f t="shared" ref="C74:C77" si="17">B74*2</f>
         <v>2.0000000000000003E+147</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3311,12 +3280,11 @@
         <v>20</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>365</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="10"/>
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3327,11 +3295,11 @@
         <v>73</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000004E+148</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3341,12 +3309,11 @@
         <v>20</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>370</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="10"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
@@ -3357,11 +3324,11 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+149</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000003E+149</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3371,12 +3338,11 @@
         <v>20</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="10"/>
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
@@ -3387,11 +3353,11 @@
         <v>75</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+150</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000003E+150</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3401,12 +3367,11 @@
         <v>20</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="10"/>
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3417,11 +3382,11 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+151</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" ref="C78:C81" si="20">B78*2</f>
+        <f t="shared" ref="C78:C81" si="18">B78*2</f>
         <v>2.0000000000000003E+151</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3431,12 +3396,11 @@
         <v>20</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>385</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="10"/>
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -3447,11 +3411,11 @@
         <v>77</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+152</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2.0000000000000003E+152</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3461,12 +3425,11 @@
         <v>20</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>390</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="10"/>
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -3477,11 +3440,11 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+153</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2.0000000000000004E+153</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3491,12 +3454,11 @@
         <v>20</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>395</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="10"/>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="H80" s="1">
         <v>0</v>
@@ -3507,11 +3469,11 @@
         <v>79</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+154</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2.0000000000000004E+154</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3521,12 +3483,11 @@
         <v>20</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="10"/>
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
@@ -3537,11 +3498,11 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+155</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" ref="C82:C85" si="21">B82*2</f>
+        <f t="shared" ref="C82:C85" si="19">B82*2</f>
         <v>2.0000000000000003E+155</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3551,12 +3512,11 @@
         <v>20</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>405</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="10"/>
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -3567,11 +3527,11 @@
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+156</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000003E+156</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -3581,12 +3541,11 @@
         <v>20</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="10"/>
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -3597,11 +3556,11 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+157</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000003E+157</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -3611,12 +3570,11 @@
         <v>20</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>415</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="10"/>
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
@@ -3627,11 +3585,11 @@
         <v>83</v>
       </c>
       <c r="B85" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+158</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000001E+158</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -3641,12 +3599,11 @@
         <v>20</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="10"/>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -3657,11 +3614,11 @@
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" ref="C86:C89" si="22">B86*2</f>
+        <f t="shared" ref="C86:C89" si="20">B86*2</f>
         <v>2.0000000000000002E+159</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -3671,12 +3628,11 @@
         <v>20</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>425</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="10"/>
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="H86" s="1">
         <v>0</v>
@@ -3687,11 +3643,11 @@
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.0000000000000003E+160</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -3701,12 +3657,11 @@
         <v>20</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>430</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="10"/>
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
@@ -3717,11 +3672,11 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.0000000000000003E+161</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -3731,12 +3686,11 @@
         <v>20</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>435</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="10"/>
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -3747,11 +3701,11 @@
         <v>87</v>
       </c>
       <c r="B89" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.0000000000000003E+162</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -3761,12 +3715,11 @@
         <v>20</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>440</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="10"/>
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="H89" s="1">
         <v>0</v>
@@ -3777,11 +3730,11 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" ref="C90:C93" si="23">B90*2</f>
+        <f t="shared" ref="C90:C93" si="21">B90*2</f>
         <v>2.0000000000000002E+163</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3791,12 +3744,11 @@
         <v>20</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>445</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="10"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
@@ -3807,11 +3759,11 @@
         <v>89</v>
       </c>
       <c r="B91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+164</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.0000000000000003E+164</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3821,12 +3773,11 @@
         <v>20</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="10"/>
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
@@ -3837,11 +3788,11 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.0000000000000002E+165</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3851,12 +3802,11 @@
         <v>20</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>455</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="10"/>
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -3867,11 +3817,11 @@
         <v>91</v>
       </c>
       <c r="B93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+166</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.0000000000000002E+166</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -3881,12 +3831,11 @@
         <v>20</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="10"/>
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -3897,11 +3846,11 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+167</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" ref="C94:C95" si="24">B94*2</f>
+        <f t="shared" ref="C94:C95" si="22">B94*2</f>
         <v>2.0000000000000001E+167</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3911,12 +3860,11 @@
         <v>20</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>465</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="10"/>
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -3927,11 +3875,11 @@
         <v>93</v>
       </c>
       <c r="B95" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1.9999999999999999E+168</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -3941,12 +3889,11 @@
         <v>20</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>470</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="10"/>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="H95" s="1">
         <v>0</v>
@@ -3957,11 +3904,11 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" ref="C96:C99" si="25">B96*2</f>
+        <f t="shared" ref="C96:C99" si="23">B96*2</f>
         <v>1.9999999999999999E+169</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -3971,12 +3918,11 @@
         <v>20</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="10"/>
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
@@ -3987,11 +3933,11 @@
         <v>95</v>
       </c>
       <c r="B97" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -4001,12 +3947,11 @@
         <v>20</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="10"/>
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -4017,11 +3962,11 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.9999999999999999E+171</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -4031,12 +3976,11 @@
         <v>20</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>485</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="10"/>
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -4047,11 +3991,11 @@
         <v>97</v>
       </c>
       <c r="B99" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.9999999999999998E+172</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -4061,12 +4005,11 @@
         <v>20</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>490</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="10"/>
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -4077,11 +4020,11 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999988E+172</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" ref="C100:C106" si="26">B100*2</f>
+        <f t="shared" ref="C100:C106" si="24">B100*2</f>
         <v>1.9999999999999998E+173</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4091,12 +4034,11 @@
         <v>20</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>495</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="10"/>
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -4107,11 +4049,11 @@
         <v>99</v>
       </c>
       <c r="B101" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C101" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.9999999999999997E+174</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -4121,12 +4063,11 @@
         <v>20</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="10"/>
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -4137,11 +4078,11 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999994E+174</v>
       </c>
       <c r="C102" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.9999999999999999E+175</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -4151,12 +4092,11 @@
         <v>20</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>505</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="10"/>
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -4167,11 +4107,11 @@
         <v>101</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+176</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2E+176</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -4181,12 +4121,11 @@
         <v>20</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="10"/>
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -4197,11 +4136,11 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B167" si="27">B103*10</f>
+        <f t="shared" ref="B104:B167" si="25">B103*10</f>
         <v>1E+177</v>
       </c>
       <c r="C104" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2E+177</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -4211,12 +4150,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ref="F104:F167" si="28">F103+5</f>
+        <f t="shared" ref="F104:F167" si="26">F103+5</f>
         <v>515</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:G167" si="29">G103+2</f>
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
@@ -4227,11 +4165,11 @@
         <v>103</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="C105" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.0000000000000001E+178</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -4241,12 +4179,11 @@
         <v>20</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>520</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="29"/>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -4257,11 +4194,11 @@
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+179</v>
       </c>
       <c r="C106" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.0000000000000002E+179</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -4271,12 +4208,11 @@
         <v>20</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>525</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="29"/>
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
@@ -4287,11 +4223,11 @@
         <v>105</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+180</v>
       </c>
       <c r="C107" s="3">
-        <f t="shared" ref="C107:C114" si="30">B107*2</f>
+        <f t="shared" ref="C107:C114" si="27">B107*2</f>
         <v>2.0000000000000002E+180</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -4301,12 +4237,11 @@
         <v>20</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>530</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="29"/>
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
@@ -4317,11 +4252,11 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000001E+181</v>
+      </c>
+      <c r="C108" s="3">
         <f t="shared" si="27"/>
-        <v>1.0000000000000001E+181</v>
-      </c>
-      <c r="C108" s="3">
-        <f t="shared" si="30"/>
         <v>2.0000000000000002E+181</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -4331,12 +4266,11 @@
         <v>20</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>535</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="29"/>
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
@@ -4347,11 +4281,11 @@
         <v>107</v>
       </c>
       <c r="B109" s="3">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="C109" s="3">
         <f t="shared" si="27"/>
-        <v>1.0000000000000001E+182</v>
-      </c>
-      <c r="C109" s="3">
-        <f t="shared" si="30"/>
         <v>2.0000000000000001E+182</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -4361,12 +4295,11 @@
         <v>20</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>540</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="29"/>
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -4377,11 +4310,11 @@
         <v>108</v>
       </c>
       <c r="B110" s="3">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="C110" s="3">
         <f t="shared" si="27"/>
-        <v>1.0000000000000001E+183</v>
-      </c>
-      <c r="C110" s="3">
-        <f t="shared" si="30"/>
         <v>2.0000000000000001E+183</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -4391,12 +4324,11 @@
         <v>20</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>545</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="29"/>
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
@@ -4407,11 +4339,11 @@
         <v>109</v>
       </c>
       <c r="B111" s="3">
+        <f t="shared" si="25"/>
+        <v>1E+184</v>
+      </c>
+      <c r="C111" s="3">
         <f t="shared" si="27"/>
-        <v>1E+184</v>
-      </c>
-      <c r="C111" s="3">
-        <f t="shared" si="30"/>
         <v>2E+184</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -4421,12 +4353,11 @@
         <v>20</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>550</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="29"/>
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="H111" s="1">
         <v>0</v>
@@ -4437,11 +4368,11 @@
         <v>110</v>
       </c>
       <c r="B112" s="3">
+        <f t="shared" si="25"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="C112" s="3">
         <f t="shared" si="27"/>
-        <v>9.9999999999999998E+184</v>
-      </c>
-      <c r="C112" s="3">
-        <f t="shared" si="30"/>
         <v>2E+185</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -4451,12 +4382,11 @@
         <v>20</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>555</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="29"/>
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
@@ -4467,11 +4397,11 @@
         <v>111</v>
       </c>
       <c r="B113" s="3">
+        <f t="shared" si="25"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="C113" s="3">
         <f t="shared" si="27"/>
-        <v>9.9999999999999998E+185</v>
-      </c>
-      <c r="C113" s="3">
-        <f t="shared" si="30"/>
         <v>2E+186</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4481,12 +4411,11 @@
         <v>20</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>560</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="29"/>
-        <v>196</v>
+        <v>392</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -4497,11 +4426,11 @@
         <v>112</v>
       </c>
       <c r="B114" s="3">
+        <f t="shared" si="25"/>
+        <v>9.9999999999999991E+186</v>
+      </c>
+      <c r="C114" s="3">
         <f t="shared" si="27"/>
-        <v>9.9999999999999991E+186</v>
-      </c>
-      <c r="C114" s="3">
-        <f t="shared" si="30"/>
         <v>1.9999999999999998E+187</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -4511,12 +4440,11 @@
         <v>20</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>565</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="29"/>
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="H114" s="1">
         <v>0</v>
@@ -4527,11 +4455,11 @@
         <v>113</v>
       </c>
       <c r="B115" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999987E+187</v>
       </c>
       <c r="C115" s="3">
-        <f t="shared" ref="C115:C118" si="31">B115*2</f>
+        <f t="shared" ref="C115:C118" si="28">B115*2</f>
         <v>1.9999999999999997E+188</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -4541,12 +4469,11 @@
         <v>20</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>570</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="29"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H115" s="1">
         <v>0</v>
@@ -4557,11 +4484,11 @@
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.999999999999999E+188</v>
       </c>
       <c r="C116" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1.9999999999999998E+189</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -4571,12 +4498,11 @@
         <v>20</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>575</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="29"/>
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
@@ -4587,11 +4513,11 @@
         <v>115</v>
       </c>
       <c r="B117" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999987E+189</v>
       </c>
       <c r="C117" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1.9999999999999997E+190</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -4601,12 +4527,11 @@
         <v>20</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>580</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="29"/>
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="H117" s="1">
         <v>0</v>
@@ -4617,11 +4542,11 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999991E+190</v>
       </c>
       <c r="C118" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1.9999999999999998E+191</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -4631,12 +4556,11 @@
         <v>20</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>585</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="29"/>
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -4647,11 +4571,11 @@
         <v>117</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="C119" s="3">
-        <f t="shared" ref="C119:C122" si="32">B119*2</f>
+        <f t="shared" ref="C119:C122" si="29">B119*2</f>
         <v>1.9999999999999998E+192</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -4661,12 +4585,11 @@
         <v>20</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>590</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="29"/>
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="H119" s="1">
         <v>0</v>
@@ -4677,11 +4600,11 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999986E+192</v>
       </c>
       <c r="C120" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>1.9999999999999997E+193</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -4691,12 +4614,11 @@
         <v>20</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>595</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="29"/>
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
@@ -4707,11 +4629,11 @@
         <v>119</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999978E+193</v>
       </c>
       <c r="C121" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>1.9999999999999996E+194</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -4721,12 +4643,11 @@
         <v>20</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>600</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="29"/>
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
@@ -4737,11 +4658,11 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999985E+194</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>1.9999999999999997E+195</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -4751,12 +4672,11 @@
         <v>20</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>605</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="29"/>
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="H122" s="1">
         <v>0</v>
@@ -4767,11 +4687,11 @@
         <v>121</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="C123" s="3">
-        <f t="shared" ref="C123:C130" si="33">B123*2</f>
+        <f t="shared" ref="C123:C130" si="30">B123*2</f>
         <v>1.9999999999999999E+196</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -4781,12 +4701,11 @@
         <v>20</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>610</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="29"/>
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
@@ -4797,11 +4716,11 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="C124" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999999E+197</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -4811,12 +4730,11 @@
         <v>20</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>615</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="29"/>
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="H124" s="1">
         <v>0</v>
@@ -4827,11 +4745,11 @@
         <v>123</v>
       </c>
       <c r="B125" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="C125" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999998E+198</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -4841,12 +4759,11 @@
         <v>20</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>620</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="29"/>
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="H125" s="1">
         <v>0</v>
@@ -4857,11 +4774,11 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="C126" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999998E+199</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -4871,12 +4788,11 @@
         <v>20</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>625</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="29"/>
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="H126" s="1">
         <v>0</v>
@@ -4887,11 +4803,11 @@
         <v>125</v>
       </c>
       <c r="B127" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="C127" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999999E+200</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -4901,12 +4817,11 @@
         <v>20</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>630</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="29"/>
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H127" s="1">
         <v>0</v>
@@ -4917,11 +4832,11 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="C128" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999998E+201</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -4931,12 +4846,11 @@
         <v>20</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>635</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="29"/>
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="H128" s="1">
         <v>0</v>
@@ -4947,11 +4861,11 @@
         <v>127</v>
       </c>
       <c r="B129" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999998E+202</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4961,12 +4875,11 @@
         <v>20</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>640</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="29"/>
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="H129" s="1">
         <v>0</v>
@@ -4977,11 +4890,11 @@
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="C130" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>2E+203</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -4991,12 +4904,11 @@
         <v>20</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>645</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="29"/>
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="H130" s="1">
         <v>0</v>
@@ -5007,11 +4919,11 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="C131" s="3">
-        <f t="shared" ref="C131:C134" si="34">B131*2</f>
+        <f t="shared" ref="C131:C134" si="31">B131*2</f>
         <v>2E+204</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -5021,12 +4933,11 @@
         <v>20</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>650</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" si="29"/>
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="H131" s="1">
         <v>0</v>
@@ -5037,11 +4948,11 @@
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+205</v>
       </c>
       <c r="C132" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2E+205</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -5051,12 +4962,11 @@
         <v>20</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>655</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="29"/>
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="H132" s="1">
         <v>0</v>
@@ -5067,11 +4977,11 @@
         <v>131</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+206</v>
       </c>
       <c r="C133" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2.0000000000000001E+206</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -5081,12 +4991,11 @@
         <v>20</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>660</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="29"/>
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="H133" s="1">
         <v>0</v>
@@ -5097,11 +5006,11 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+207</v>
       </c>
       <c r="C134" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2.0000000000000001E+207</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -5111,12 +5020,11 @@
         <v>20</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>665</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="29"/>
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="H134" s="1">
         <v>0</v>
@@ -5127,11 +5035,11 @@
         <v>133</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="C135" s="3">
-        <f t="shared" ref="C135:C138" si="35">B135*2</f>
+        <f t="shared" ref="C135:C138" si="32">B135*2</f>
         <v>2E+208</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -5141,12 +5049,11 @@
         <v>20</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>670</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="29"/>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="H135" s="1">
         <v>0</v>
@@ -5157,11 +5064,11 @@
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="C136" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>2.0000000000000001E+209</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -5171,12 +5078,11 @@
         <v>20</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>675</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="29"/>
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="H136" s="1">
         <v>0</v>
@@ -5187,11 +5093,11 @@
         <v>135</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+210</v>
       </c>
       <c r="C137" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>2.0000000000000001E+210</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -5201,12 +5107,11 @@
         <v>20</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>680</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="29"/>
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="H137" s="1">
         <v>0</v>
@@ -5217,11 +5122,11 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+211</v>
       </c>
       <c r="C138" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>2.0000000000000001E+211</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -5231,12 +5136,11 @@
         <v>20</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>685</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="29"/>
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="H138" s="1">
         <v>0</v>
@@ -5247,11 +5151,11 @@
         <v>137</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+212</v>
       </c>
       <c r="C139" s="3">
-        <f t="shared" ref="C139:C142" si="36">B139*2</f>
+        <f t="shared" ref="C139:C142" si="33">B139*2</f>
         <v>2.0000000000000002E+212</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -5261,12 +5165,11 @@
         <v>20</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>690</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="29"/>
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="H139" s="1">
         <v>0</v>
@@ -5277,11 +5180,11 @@
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C140" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>2.0000000000000003E+213</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -5291,12 +5194,11 @@
         <v>20</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>695</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="29"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H140" s="1">
         <v>0</v>
@@ -5307,11 +5209,11 @@
         <v>139</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000002E+214</v>
       </c>
       <c r="C141" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>2.0000000000000004E+214</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -5321,12 +5223,11 @@
         <v>20</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>700</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="29"/>
-        <v>252</v>
+        <v>504</v>
       </c>
       <c r="H141" s="1">
         <v>0</v>
@@ -5337,11 +5238,11 @@
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+215</v>
       </c>
       <c r="C142" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>2.0000000000000002E+215</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -5351,12 +5252,11 @@
         <v>20</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>705</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="29"/>
-        <v>254</v>
+        <v>508</v>
       </c>
       <c r="H142" s="1">
         <v>0</v>
@@ -5367,11 +5267,11 @@
         <v>141</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+216</v>
       </c>
       <c r="C143" s="3">
-        <f t="shared" ref="C143:C150" si="37">B143*2</f>
+        <f t="shared" ref="C143:C150" si="34">B143*2</f>
         <v>2E+216</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -5381,12 +5281,11 @@
         <v>20</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>710</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="29"/>
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="H143" s="1">
         <v>0</v>
@@ -5397,11 +5296,11 @@
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+217</v>
       </c>
       <c r="C144" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2.0000000000000002E+217</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -5411,12 +5310,11 @@
         <v>20</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>715</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="29"/>
-        <v>258</v>
+        <v>516</v>
       </c>
       <c r="H144" s="1">
         <v>0</v>
@@ -5427,11 +5325,11 @@
         <v>143</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="C145" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2.0000000000000002E+218</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -5441,12 +5339,11 @@
         <v>20</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>720</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="29"/>
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="H145" s="1">
         <v>0</v>
@@ -5457,11 +5354,11 @@
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+219</v>
       </c>
       <c r="C146" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2.0000000000000002E+219</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -5471,12 +5368,11 @@
         <v>20</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>725</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="29"/>
-        <v>262</v>
+        <v>524</v>
       </c>
       <c r="H146" s="1">
         <v>0</v>
@@ -5487,11 +5383,11 @@
         <v>145</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+220</v>
       </c>
       <c r="C147" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2.0000000000000002E+220</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -5501,12 +5397,11 @@
         <v>20</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>730</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="29"/>
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="H147" s="1">
         <v>0</v>
@@ -5517,11 +5412,11 @@
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+221</v>
       </c>
       <c r="C148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2.0000000000000001E+221</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -5531,12 +5426,11 @@
         <v>20</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>735</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="29"/>
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="H148" s="1">
         <v>0</v>
@@ -5547,11 +5441,11 @@
         <v>147</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+222</v>
       </c>
       <c r="C149" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2.0000000000000001E+222</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -5561,12 +5455,11 @@
         <v>20</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>740</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="29"/>
-        <v>268</v>
+        <v>536</v>
       </c>
       <c r="H149" s="1">
         <v>0</v>
@@ -5577,11 +5470,11 @@
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+223</v>
       </c>
       <c r="C150" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2.0000000000000001E+223</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -5591,12 +5484,11 @@
         <v>20</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>745</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="29"/>
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="H150" s="1">
         <v>0</v>
@@ -5607,11 +5499,11 @@
         <v>149</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="C151" s="3">
-        <f t="shared" ref="C151:C154" si="38">B151*2</f>
+        <f t="shared" ref="C151:C154" si="35">B151*2</f>
         <v>1.9999999999999999E+224</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -5621,12 +5513,11 @@
         <v>20</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>750</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="29"/>
-        <v>272</v>
+        <v>544</v>
       </c>
       <c r="H151" s="1">
         <v>0</v>
@@ -5637,11 +5528,11 @@
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999993E+224</v>
       </c>
       <c r="C152" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1.9999999999999999E+225</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -5651,12 +5542,11 @@
         <v>20</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>755</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="29"/>
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
@@ -5667,11 +5557,11 @@
         <v>151</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C153" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1.9999999999999999E+226</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -5681,12 +5571,11 @@
         <v>20</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>760</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="29"/>
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="H153" s="1">
         <v>0</v>
@@ -5697,11 +5586,11 @@
         <v>152</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+226</v>
       </c>
       <c r="C154" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1.9999999999999998E+227</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -5711,12 +5600,11 @@
         <v>20</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>765</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="29"/>
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="H154" s="1">
         <v>0</v>
@@ -5727,11 +5615,11 @@
         <v>153</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="C155" s="3">
-        <f t="shared" ref="C155:C158" si="39">B155*2</f>
+        <f t="shared" ref="C155:C158" si="36">B155*2</f>
         <v>1.9999999999999998E+228</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -5741,12 +5629,11 @@
         <v>20</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>770</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="29"/>
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="H155" s="1">
         <v>0</v>
@@ -5757,11 +5644,11 @@
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+228</v>
       </c>
       <c r="C156" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>2E+229</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -5771,12 +5658,11 @@
         <v>20</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>775</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="29"/>
-        <v>282</v>
+        <v>564</v>
       </c>
       <c r="H156" s="1">
         <v>0</v>
@@ -5787,11 +5673,11 @@
         <v>155</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="C157" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1.9999999999999998E+230</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -5801,12 +5687,11 @@
         <v>20</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>780</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="29"/>
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="H157" s="1">
         <v>0</v>
@@ -5817,11 +5702,11 @@
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+230</v>
       </c>
       <c r="C158" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1.9999999999999998E+231</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -5831,12 +5716,11 @@
         <v>20</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>785</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="29"/>
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="H158" s="1">
         <v>0</v>
@@ -5847,11 +5731,11 @@
         <v>157</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+231</v>
       </c>
       <c r="C159" s="3">
-        <f t="shared" ref="C159:C162" si="40">B159*2</f>
+        <f t="shared" ref="C159:C162" si="37">B159*2</f>
         <v>1.9999999999999998E+232</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -5861,12 +5745,11 @@
         <v>20</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>790</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="29"/>
-        <v>288</v>
+        <v>576</v>
       </c>
       <c r="H159" s="1">
         <v>0</v>
@@ -5877,11 +5760,11 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+232</v>
       </c>
       <c r="C160" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>1.9999999999999999E+233</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -5891,12 +5774,11 @@
         <v>20</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>795</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="29"/>
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="H160" s="1">
         <v>0</v>
@@ -5907,11 +5789,11 @@
         <v>159</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+234</v>
       </c>
       <c r="C161" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>2E+234</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -5921,12 +5803,11 @@
         <v>20</v>
       </c>
       <c r="F161" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>800</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="29"/>
-        <v>292</v>
+        <v>584</v>
       </c>
       <c r="H161" s="1">
         <v>0</v>
@@ -5937,11 +5818,11 @@
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+235</v>
       </c>
       <c r="C162" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>2.0000000000000001E+235</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -5951,12 +5832,11 @@
         <v>20</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>805</v>
       </c>
       <c r="G162" s="1">
-        <f t="shared" si="29"/>
-        <v>294</v>
+        <v>588</v>
       </c>
       <c r="H162" s="1">
         <v>0</v>
@@ -5967,11 +5847,11 @@
         <v>161</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="C163" s="3">
-        <f t="shared" ref="C163:C166" si="41">B163*2</f>
+        <f t="shared" ref="C163:C166" si="38">B163*2</f>
         <v>2.0000000000000001E+236</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -5981,12 +5861,11 @@
         <v>20</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>810</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" si="29"/>
-        <v>296</v>
+        <v>592</v>
       </c>
       <c r="H163" s="1">
         <v>0</v>
@@ -5997,11 +5876,11 @@
         <v>162</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+237</v>
       </c>
       <c r="C164" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000002E+237</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -6011,12 +5890,11 @@
         <v>20</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>815</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" si="29"/>
-        <v>298</v>
+        <v>596</v>
       </c>
       <c r="H164" s="1">
         <v>0</v>
@@ -6027,11 +5905,11 @@
         <v>163</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1E+238</v>
       </c>
       <c r="C165" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000001E+238</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -6041,12 +5919,11 @@
         <v>20</v>
       </c>
       <c r="F165" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>820</v>
       </c>
       <c r="G165" s="1">
-        <f t="shared" si="29"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H165" s="1">
         <v>0</v>
@@ -6057,11 +5934,11 @@
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+239</v>
       </c>
       <c r="C166" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000002E+239</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -6071,12 +5948,11 @@
         <v>20</v>
       </c>
       <c r="F166" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>825</v>
       </c>
       <c r="G166" s="1">
-        <f t="shared" si="29"/>
-        <v>302</v>
+        <v>604</v>
       </c>
       <c r="H166" s="1">
         <v>0</v>
@@ -6087,11 +5963,11 @@
         <v>165</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000002E+240</v>
       </c>
       <c r="C167" s="3">
-        <f t="shared" ref="C167:C170" si="42">B167*2</f>
+        <f t="shared" ref="C167:C170" si="39">B167*2</f>
         <v>2.0000000000000004E+240</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -6101,12 +5977,11 @@
         <v>20</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>830</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="29"/>
-        <v>304</v>
+        <v>608</v>
       </c>
       <c r="H167" s="1">
         <v>0</v>
@@ -6117,11 +5992,11 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" ref="B168:B178" si="43">B167*10</f>
+        <f t="shared" ref="B168:B182" si="40">B167*10</f>
         <v>1.0000000000000002E+241</v>
       </c>
       <c r="C168" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>2.0000000000000004E+241</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -6131,12 +6006,11 @@
         <v>20</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" ref="F168:F178" si="44">F167+5</f>
+        <f t="shared" ref="F168:F182" si="41">F167+5</f>
         <v>835</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" ref="G168:G178" si="45">G167+2</f>
-        <v>306</v>
+        <v>612</v>
       </c>
       <c r="H168" s="1">
         <v>0</v>
@@ -6147,11 +6021,11 @@
         <v>167</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000002E+242</v>
       </c>
       <c r="C169" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>2.0000000000000003E+242</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -6161,12 +6035,11 @@
         <v>20</v>
       </c>
       <c r="F169" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>840</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="45"/>
-        <v>308</v>
+        <v>616</v>
       </c>
       <c r="H169" s="1">
         <v>0</v>
@@ -6177,11 +6050,11 @@
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+243</v>
       </c>
       <c r="C170" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>2.0000000000000001E+243</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -6191,12 +6064,11 @@
         <v>20</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>845</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="45"/>
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="H170" s="1">
         <v>0</v>
@@ -6207,11 +6079,11 @@
         <v>169</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="C171" s="3">
-        <f t="shared" ref="C171:C174" si="46">B171*2</f>
+        <f t="shared" ref="C171:C174" si="42">B171*2</f>
         <v>2.0000000000000001E+244</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -6221,12 +6093,11 @@
         <v>20</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>850</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="45"/>
-        <v>312</v>
+        <v>624</v>
       </c>
       <c r="H171" s="1">
         <v>0</v>
@@ -6237,11 +6108,11 @@
         <v>170</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1E+245</v>
       </c>
       <c r="C172" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>2.0000000000000001E+245</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -6251,12 +6122,11 @@
         <v>20</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>855</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="45"/>
-        <v>314</v>
+        <v>628</v>
       </c>
       <c r="H172" s="1">
         <v>0</v>
@@ -6267,11 +6137,11 @@
         <v>171</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+246</v>
       </c>
       <c r="C173" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>2.0000000000000001E+246</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -6281,12 +6151,11 @@
         <v>20</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>860</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" si="45"/>
-        <v>316</v>
+        <v>632</v>
       </c>
       <c r="H173" s="1">
         <v>0</v>
@@ -6297,11 +6166,11 @@
         <v>172</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+247</v>
       </c>
       <c r="C174" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>2.0000000000000002E+247</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -6311,12 +6180,11 @@
         <v>20</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>865</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="45"/>
-        <v>318</v>
+        <v>636</v>
       </c>
       <c r="H174" s="1">
         <v>0</v>
@@ -6327,11 +6195,11 @@
         <v>173</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000002E+248</v>
       </c>
       <c r="C175" s="3">
-        <f t="shared" ref="C175:C178" si="47">B175*2</f>
+        <f t="shared" ref="C175:C178" si="43">B175*2</f>
         <v>2.0000000000000003E+248</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -6341,12 +6209,11 @@
         <v>20</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>870</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="45"/>
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="H175" s="1">
         <v>0</v>
@@ -6357,11 +6224,11 @@
         <v>174</v>
       </c>
       <c r="B176" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="C176" s="3">
         <f t="shared" si="43"/>
-        <v>1.0000000000000001E+249</v>
-      </c>
-      <c r="C176" s="3">
-        <f t="shared" si="47"/>
         <v>2.0000000000000002E+249</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -6371,12 +6238,11 @@
         <v>20</v>
       </c>
       <c r="F176" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>875</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="45"/>
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="H176" s="1">
         <v>0</v>
@@ -6387,11 +6253,11 @@
         <v>175</v>
       </c>
       <c r="B177" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="C177" s="3">
         <f t="shared" si="43"/>
-        <v>1.0000000000000001E+250</v>
-      </c>
-      <c r="C177" s="3">
-        <f t="shared" si="47"/>
         <v>2.0000000000000002E+250</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -6401,12 +6267,11 @@
         <v>20</v>
       </c>
       <c r="F177" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>880</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="45"/>
-        <v>324</v>
+        <v>648</v>
       </c>
       <c r="H177" s="1">
         <v>0</v>
@@ -6417,11 +6282,11 @@
         <v>176</v>
       </c>
       <c r="B178" s="3">
+        <f t="shared" si="40"/>
+        <v>1E+251</v>
+      </c>
+      <c r="C178" s="3">
         <f t="shared" si="43"/>
-        <v>1E+251</v>
-      </c>
-      <c r="C178" s="3">
-        <f t="shared" si="47"/>
         <v>2.0000000000000001E+251</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -6431,14 +6296,129 @@
         <v>20</v>
       </c>
       <c r="F178" s="1">
+        <f t="shared" si="41"/>
+        <v>885</v>
+      </c>
+      <c r="G178" s="1">
+        <v>652</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="C179" s="3">
+        <f t="shared" ref="C179:C182" si="44">B179*2</f>
+        <v>2.0000000000000002E+252</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E179" s="1">
+        <v>20</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="41"/>
+        <v>890</v>
+      </c>
+      <c r="G179" s="1">
+        <v>656</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="C180" s="3">
         <f t="shared" si="44"/>
-        <v>885</v>
-      </c>
-      <c r="G178" s="1">
-        <f t="shared" si="45"/>
-        <v>326</v>
-      </c>
-      <c r="H178" s="1">
+        <v>2.0000000000000002E+253</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E180" s="1">
+        <v>20</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="41"/>
+        <v>895</v>
+      </c>
+      <c r="G180" s="1">
+        <v>660</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="C181" s="3">
+        <f t="shared" si="44"/>
+        <v>2.0000000000000001E+254</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E181" s="1">
+        <v>20</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="41"/>
+        <v>900</v>
+      </c>
+      <c r="G181" s="1">
+        <v>664</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3">
+        <f t="shared" si="40"/>
+        <v>9.9999999999999999E+254</v>
+      </c>
+      <c r="C182" s="3">
+        <f t="shared" si="44"/>
+        <v>2E+255</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E182" s="1">
+        <v>20</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="41"/>
+        <v>905</v>
+      </c>
+      <c r="G182" s="1">
+        <v>668</v>
+      </c>
+      <c r="H182" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7B6D0-3F12-48E3-8B4B-74B49589BA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EE00C-6798-43C9-B9C0-2E8D5B43CE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,6 +789,54 @@
   </si>
   <si>
     <t>1000산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,11 +1227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5992,7 +6040,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" ref="B168:B182" si="40">B167*10</f>
+        <f t="shared" ref="B168:B194" si="40">B167*10</f>
         <v>1.0000000000000002E+241</v>
       </c>
       <c r="C168" s="3">
@@ -6006,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" ref="F168:F182" si="41">F167+5</f>
+        <f t="shared" ref="F168:F194" si="41">F167+5</f>
         <v>835</v>
       </c>
       <c r="G168" s="1">
@@ -6419,6 +6467,354 @@
         <v>668</v>
       </c>
       <c r="H182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3">
+        <f t="shared" si="40"/>
+        <v>1E+256</v>
+      </c>
+      <c r="C183" s="3">
+        <f t="shared" ref="C183:C194" si="45">B183*2</f>
+        <v>2.0000000000000001E+256</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E183" s="1">
+        <v>20</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="41"/>
+        <v>910</v>
+      </c>
+      <c r="G183" s="1">
+        <v>672</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3">
+        <f t="shared" si="40"/>
+        <v>1E+257</v>
+      </c>
+      <c r="C184" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000001E+257</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E184" s="1">
+        <v>20</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="41"/>
+        <v>915</v>
+      </c>
+      <c r="G184" s="1">
+        <v>676</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="C185" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000001E+258</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E185" s="1">
+        <v>20</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="41"/>
+        <v>920</v>
+      </c>
+      <c r="G185" s="1">
+        <v>680</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="C186" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000002E+259</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E186" s="1">
+        <v>20</v>
+      </c>
+      <c r="F186" s="1">
+        <f t="shared" si="41"/>
+        <v>925</v>
+      </c>
+      <c r="G186" s="1">
+        <v>684</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="C187" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000001E+260</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E187" s="1">
+        <v>20</v>
+      </c>
+      <c r="F187" s="1">
+        <f t="shared" si="41"/>
+        <v>930</v>
+      </c>
+      <c r="G187" s="1">
+        <v>688</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="C188" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000003E+261</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E188" s="1">
+        <v>20</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" si="41"/>
+        <v>935</v>
+      </c>
+      <c r="G188" s="1">
+        <v>692</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000002E+262</v>
+      </c>
+      <c r="C189" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000004E+262</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E189" s="1">
+        <v>20</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="41"/>
+        <v>940</v>
+      </c>
+      <c r="G189" s="1">
+        <v>696</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000002E+263</v>
+      </c>
+      <c r="C190" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000003E+263</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E190" s="1">
+        <v>20</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="41"/>
+        <v>945</v>
+      </c>
+      <c r="G190" s="1">
+        <v>700</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000002E+264</v>
+      </c>
+      <c r="C191" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000003E+264</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E191" s="1">
+        <v>20</v>
+      </c>
+      <c r="F191" s="1">
+        <f t="shared" si="41"/>
+        <v>950</v>
+      </c>
+      <c r="G191" s="1">
+        <v>704</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000002E+265</v>
+      </c>
+      <c r="C192" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000005E+265</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E192" s="1">
+        <v>20</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" si="41"/>
+        <v>955</v>
+      </c>
+      <c r="G192" s="1">
+        <v>708</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000003E+266</v>
+      </c>
+      <c r="C193" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000006E+266</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E193" s="1">
+        <v>20</v>
+      </c>
+      <c r="F193" s="1">
+        <f t="shared" si="41"/>
+        <v>960</v>
+      </c>
+      <c r="G193" s="1">
+        <v>712</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000003E+267</v>
+      </c>
+      <c r="C194" s="3">
+        <f t="shared" si="45"/>
+        <v>2.0000000000000006E+267</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E194" s="1">
+        <v>20</v>
+      </c>
+      <c r="F194" s="1">
+        <f t="shared" si="41"/>
+        <v>965</v>
+      </c>
+      <c r="G194" s="1">
+        <v>716</v>
+      </c>
+      <c r="H194" s="1">
         <v>0</v>
       </c>
     </row>
